--- a/Annotations/New/TheWheelOfTime.xlsx
+++ b/Annotations/New/TheWheelOfTime.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="wheeltime" sheetId="1" r:id="rId1"/>
@@ -2445,15 +2445,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P499"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H499" sqref="H499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="41.5546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="35" style="1" customWidth="1"/>
@@ -2519,7 +2519,7 @@
     <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.36745100656931984</v>
+        <v>0.28103063560451069</v>
       </c>
       <c r="B2" s="1">
         <v>313</v>
@@ -2543,7 +2543,7 @@
     <row r="3" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41515233365629456</v>
+        <v>0.97418047003585606</v>
       </c>
       <c r="B3" s="1">
         <v>458</v>
@@ -2564,7 +2564,7 @@
     <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.325595271934773</v>
+        <v>0.61995612032920078</v>
       </c>
       <c r="B4" s="1">
         <v>309</v>
@@ -2588,7 +2588,7 @@
     <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69261372314657965</v>
+        <v>0.23145370455253911</v>
       </c>
       <c r="B5" s="1">
         <v>664</v>
@@ -2612,7 +2612,7 @@
     <row r="6" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99616269761289278</v>
+        <v>0.34526972488678975</v>
       </c>
       <c r="B6" s="1">
         <v>434</v>
@@ -2633,7 +2633,7 @@
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39454208557418136</v>
+        <v>0.52186877820756417</v>
       </c>
       <c r="B7" s="1">
         <v>584</v>
@@ -2660,7 +2660,7 @@
     <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86769395143511219</v>
+        <v>6.754568720243348E-2</v>
       </c>
       <c r="B8" s="1">
         <v>316</v>
@@ -2684,7 +2684,7 @@
     <row r="9" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8400034639142161</v>
+        <v>0.51882992230391323</v>
       </c>
       <c r="B9" s="1">
         <v>420</v>
@@ -2711,7 +2711,7 @@
     <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10851049836205817</v>
+        <v>0.27496079074595914</v>
       </c>
       <c r="B10" s="1">
         <v>673</v>
@@ -2735,7 +2735,7 @@
     <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23220621617186021</v>
+        <v>2.5796800009414977E-2</v>
       </c>
       <c r="B11" s="1">
         <v>238</v>
@@ -2756,7 +2756,7 @@
     <row r="12" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25463906750927512</v>
+        <v>0.41679794386854241</v>
       </c>
       <c r="B12" s="1">
         <v>245</v>
@@ -2777,7 +2777,7 @@
     <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16004405692870705</v>
+        <v>0.28066953287166208</v>
       </c>
       <c r="B13" s="1">
         <v>622</v>
@@ -2804,7 +2804,7 @@
     <row r="14" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68168383090006457</v>
+        <v>5.5788960148609457E-3</v>
       </c>
       <c r="B14" s="1">
         <v>250</v>
@@ -2828,7 +2828,7 @@
     <row r="15" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31995683064619196</v>
+        <v>8.9505582906140857E-2</v>
       </c>
       <c r="B15" s="1">
         <v>424</v>
@@ -2852,7 +2852,7 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38382761985531966</v>
+        <v>0.25151779732204271</v>
       </c>
       <c r="B16" s="1">
         <v>302</v>
@@ -2876,7 +2876,7 @@
     <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37282462480376832</v>
+        <v>0.25220788822139117</v>
       </c>
       <c r="B17" s="1">
         <v>371</v>
@@ -2897,7 +2897,7 @@
     <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43815034306423528</v>
+        <v>0.72593193085372021</v>
       </c>
       <c r="B18" s="1">
         <v>623</v>
@@ -2918,7 +2918,7 @@
     <row r="19" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92712028571035809</v>
+        <v>0.20436565052240663</v>
       </c>
       <c r="B19" s="1">
         <v>361</v>
@@ -2942,7 +2942,7 @@
     <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4009834290988108</v>
+        <v>0.67168163250129931</v>
       </c>
       <c r="B20" s="1">
         <v>343</v>
@@ -2966,7 +2966,7 @@
     <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36673003733356035</v>
+        <v>0.52400646927595229</v>
       </c>
       <c r="B21" s="1">
         <v>348</v>
@@ -2996,7 +2996,7 @@
     <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63057820454524427</v>
+        <v>0.32216273448047006</v>
       </c>
       <c r="B22" s="1">
         <v>513</v>
@@ -3020,7 +3020,7 @@
     <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16181218127901864</v>
+        <v>5.7472142600032416E-2</v>
       </c>
       <c r="B23" s="1">
         <v>675</v>
@@ -3047,7 +3047,7 @@
     <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95899741278237483</v>
+        <v>0.71535034990632407</v>
       </c>
       <c r="B24" s="1">
         <v>370</v>
@@ -3074,7 +3074,7 @@
     <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38535473708324497</v>
+        <v>0.32061135591221668</v>
       </c>
       <c r="B25" s="1">
         <v>359</v>
@@ -3095,7 +3095,7 @@
     <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17445226352257104</v>
+        <v>3.73440660633102E-2</v>
       </c>
       <c r="B26" s="1">
         <v>507</v>
@@ -3119,7 +3119,7 @@
     <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72589976672831225</v>
+        <v>0.12256000946056478</v>
       </c>
       <c r="B27" s="1">
         <v>561</v>
@@ -3143,7 +3143,7 @@
     <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88249876520837034</v>
+        <v>0.72614945314167334</v>
       </c>
       <c r="B28" s="1">
         <v>529</v>
@@ -3170,7 +3170,7 @@
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69179166268036218</v>
+        <v>0.96464168715500875</v>
       </c>
       <c r="B29" s="1">
         <v>652</v>
@@ -3197,7 +3197,7 @@
     <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8414375185821794E-2</v>
+        <v>4.8985123227355376E-2</v>
       </c>
       <c r="B30" s="1">
         <v>465</v>
@@ -3221,7 +3221,7 @@
     <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34817934094065972</v>
+        <v>0.62381555495101004</v>
       </c>
       <c r="B31" s="1">
         <v>598</v>
@@ -3242,7 +3242,7 @@
     <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7994165699433079</v>
+        <v>0.33653739962365858</v>
       </c>
       <c r="B32" s="1">
         <v>541</v>
@@ -3266,7 +3266,7 @@
     <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73279870001554226</v>
+        <v>0.72193860123296805</v>
       </c>
       <c r="B33" s="1">
         <v>393</v>
@@ -3290,7 +3290,7 @@
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99250102344886137</v>
+        <v>0.25183389119351507</v>
       </c>
       <c r="B34" s="1">
         <v>643</v>
@@ -3311,7 +3311,7 @@
     <row r="35" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85542949153900416</v>
+        <v>0.30589608251932898</v>
       </c>
       <c r="B35" s="1">
         <v>700</v>
@@ -3338,7 +3338,7 @@
     <row r="36" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93834775077607591</v>
+        <v>0.34812735286150276</v>
       </c>
       <c r="B36" s="1">
         <v>234</v>
@@ -3359,7 +3359,7 @@
     <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86622289271921959</v>
+        <v>0.39228910212705348</v>
       </c>
       <c r="B37" s="1">
         <v>604</v>
@@ -3383,7 +3383,7 @@
     <row r="38" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39213084045868496</v>
+        <v>2.4288067078709674E-2</v>
       </c>
       <c r="B38" s="1">
         <v>564</v>
@@ -3407,7 +3407,7 @@
     <row r="39" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43153819785653635</v>
+        <v>0.23213728169413672</v>
       </c>
       <c r="B39" s="1">
         <v>314</v>
@@ -3431,7 +3431,7 @@
     <row r="40" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71655800481636867</v>
+        <v>0.60791434228214969</v>
       </c>
       <c r="B40" s="1">
         <v>565</v>
@@ -3461,7 +3461,7 @@
     <row r="41" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85307260672468577</v>
+        <v>0.2609202606997405</v>
       </c>
       <c r="B41" s="1">
         <v>464</v>
@@ -3485,7 +3485,7 @@
     <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7996685535083905</v>
+        <v>0.71195658030088138</v>
       </c>
       <c r="B42" s="1">
         <v>648</v>
@@ -3512,7 +3512,7 @@
     <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95476610451094091</v>
+        <v>0.17941268700125779</v>
       </c>
       <c r="B43" s="1">
         <v>683</v>
@@ -3539,7 +3539,7 @@
     <row r="44" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49327839645974536</v>
+        <v>0.21846130451853374</v>
       </c>
       <c r="B44" s="1">
         <v>396</v>
@@ -3569,7 +3569,7 @@
     <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53735496979559538</v>
+        <v>0.34961587229914393</v>
       </c>
       <c r="B45" s="1">
         <v>511</v>
@@ -3593,7 +3593,7 @@
     <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64984002267339203</v>
+        <v>0.57324808170589736</v>
       </c>
       <c r="B46" s="1">
         <v>691</v>
@@ -3626,7 +3626,7 @@
     <row r="47" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44360611674555783</v>
+        <v>0.56915999453894495</v>
       </c>
       <c r="B47" s="1">
         <v>350</v>
@@ -3650,7 +3650,7 @@
     <row r="48" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62062034343514461</v>
+        <v>0.52284900223298425</v>
       </c>
       <c r="B48" s="1">
         <v>416</v>
@@ -3677,7 +3677,7 @@
     <row r="49" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50906409489443216</v>
+        <v>0.13190632939424629</v>
       </c>
       <c r="B49" s="1">
         <v>319</v>
@@ -3707,7 +3707,7 @@
     <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34940149985072388</v>
+        <v>4.2474350157292395E-2</v>
       </c>
       <c r="B50" s="1">
         <v>661</v>
@@ -3731,7 +3731,7 @@
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83087932012931565</v>
+        <v>0.48959446193425438</v>
       </c>
       <c r="B51" s="1">
         <v>570</v>
@@ -3755,7 +3755,7 @@
     <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68512905789424716</v>
+        <v>0.98695966849853511</v>
       </c>
       <c r="B52" s="1">
         <v>682</v>
@@ -3776,7 +3776,7 @@
     <row r="53" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66187475454233602</v>
+        <v>0.55503440633991452</v>
       </c>
       <c r="B53" s="1">
         <v>382</v>
@@ -3806,7 +3806,7 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54371641018571271</v>
+        <v>0.19244215234109374</v>
       </c>
       <c r="B54" s="1">
         <v>504</v>
@@ -3830,7 +3830,7 @@
     <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33700501079842993</v>
+        <v>0.54231881080028455</v>
       </c>
       <c r="B55" s="1">
         <v>614</v>
@@ -3854,7 +3854,7 @@
     <row r="56" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47048399323832413</v>
+        <v>0.97907405499731914</v>
       </c>
       <c r="B56" s="1">
         <v>375</v>
@@ -3875,7 +3875,7 @@
     <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5560389735243612E-2</v>
+        <v>0.44037597665537787</v>
       </c>
       <c r="B57" s="1">
         <v>649</v>
@@ -3896,7 +3896,7 @@
     <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32180406673890583</v>
+        <v>1.2969394134079937E-2</v>
       </c>
       <c r="B58" s="1">
         <v>493</v>
@@ -3920,7 +3920,7 @@
     <row r="59" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39903799763976966</v>
+        <v>0.39050627066008847</v>
       </c>
       <c r="B59" s="1">
         <v>252</v>
@@ -3947,7 +3947,7 @@
     <row r="60" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3133337596876723</v>
+        <v>0.68952819218492534</v>
       </c>
       <c r="B60" s="1">
         <v>226</v>
@@ -3971,7 +3971,7 @@
     <row r="61" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86739434844542229</v>
+        <v>0.93819546895927397</v>
       </c>
       <c r="B61" s="1">
         <v>404</v>
@@ -3995,7 +3995,7 @@
     <row r="62" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74414599592167641</v>
+        <v>0.61211136995688398</v>
       </c>
       <c r="B62" s="1">
         <v>445</v>
@@ -4016,7 +4016,7 @@
     <row r="63" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44669917553037797</v>
+        <v>0.62084305167081832</v>
       </c>
       <c r="B63" s="1">
         <v>527</v>
@@ -4037,7 +4037,7 @@
     <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75919597159300822</v>
+        <v>0.38194927637592013</v>
       </c>
       <c r="B64" s="1">
         <v>704</v>
@@ -4064,7 +4064,7 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32247567484420425</v>
+        <v>0.78690580972842961</v>
       </c>
       <c r="B65" s="1">
         <v>532</v>
@@ -4088,7 +4088,7 @@
     <row r="66" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.32803952837684203</v>
+        <v>2.6874063002995774E-2</v>
       </c>
       <c r="B66" s="1">
         <v>626</v>
@@ -4109,7 +4109,7 @@
     <row r="67" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77389150740838686</v>
+        <v>0.70526593638722646</v>
       </c>
       <c r="B67" s="1">
         <v>415</v>
@@ -4130,7 +4130,7 @@
     <row r="68" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69316549152253215</v>
+        <v>0.26823730035481419</v>
       </c>
       <c r="B68" s="1">
         <v>219</v>
@@ -4151,7 +4151,7 @@
     <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45183980431427295</v>
+        <v>2.6985446233438681E-2</v>
       </c>
       <c r="B69" s="1">
         <v>329</v>
@@ -4175,7 +4175,7 @@
     <row r="70" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22609874326226043</v>
+        <v>0.9643997252400619</v>
       </c>
       <c r="B70" s="1">
         <v>613</v>
@@ -4205,7 +4205,7 @@
     <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41224676732451682</v>
+        <v>0.68308297883235225</v>
       </c>
       <c r="B71" s="1">
         <v>296</v>
@@ -4232,7 +4232,7 @@
     <row r="72" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63241611639701345</v>
+        <v>0.38455533162409505</v>
       </c>
       <c r="B72" s="1">
         <v>480</v>
@@ -4259,7 +4259,7 @@
     <row r="73" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38751121427807134</v>
+        <v>0.20966698967050001</v>
       </c>
       <c r="B73" s="1">
         <v>439</v>
@@ -4280,7 +4280,7 @@
     <row r="74" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0138538175721576E-2</v>
+        <v>0.25520917873636351</v>
       </c>
       <c r="B74" s="1">
         <v>635</v>
@@ -4301,7 +4301,7 @@
     <row r="75" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8814689881865685E-2</v>
+        <v>6.8666667616212873E-2</v>
       </c>
       <c r="B75" s="1">
         <v>672</v>
@@ -4325,7 +4325,7 @@
     <row r="76" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11055073483900024</v>
+        <v>0.86992433856023088</v>
       </c>
       <c r="B76" s="1">
         <v>288</v>
@@ -4349,7 +4349,7 @@
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87325848423210262</v>
+        <v>0.64048576076358665</v>
       </c>
       <c r="B77" s="1">
         <v>390</v>
@@ -4373,7 +4373,7 @@
     <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96011950390945988</v>
+        <v>0.56855049543903835</v>
       </c>
       <c r="B78" s="1">
         <v>585</v>
@@ -4397,7 +4397,7 @@
     <row r="79" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38898156558467101</v>
+        <v>0.79135071440009352</v>
       </c>
       <c r="B79" s="1">
         <v>552</v>
@@ -4418,7 +4418,7 @@
     <row r="80" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9563563196411351</v>
+        <v>0.58769455854372188</v>
       </c>
       <c r="B80" s="1">
         <v>395</v>
@@ -4445,7 +4445,7 @@
     <row r="81" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2642398074795369</v>
+        <v>0.55609183630965198</v>
       </c>
       <c r="B81" s="1">
         <v>619</v>
@@ -4466,7 +4466,7 @@
     <row r="82" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72420410398527113</v>
+        <v>0.12435913756836114</v>
       </c>
       <c r="B82" s="1">
         <v>490</v>
@@ -4490,7 +4490,7 @@
     <row r="83" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65218119085141668</v>
+        <v>0.73976628148857615</v>
       </c>
       <c r="B83" s="1">
         <v>553</v>
@@ -4520,7 +4520,7 @@
     <row r="84" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53234134995182059</v>
+        <v>0.28429798524159755</v>
       </c>
       <c r="B84" s="1">
         <v>216</v>
@@ -4541,7 +4541,7 @@
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71368412842050744</v>
+        <v>0.90454546964723237</v>
       </c>
       <c r="B85" s="1">
         <v>476</v>
@@ -4565,7 +4565,7 @@
     <row r="86" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69158247227089342</v>
+        <v>0.75409269648077271</v>
       </c>
       <c r="B86" s="1">
         <v>367</v>
@@ -4586,7 +4586,7 @@
     <row r="87" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78022914942289068</v>
+        <v>0.61705302300824305</v>
       </c>
       <c r="B87" s="1">
         <v>427</v>
@@ -4610,7 +4610,7 @@
     <row r="88" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23664351882233758</v>
+        <v>0.54745404866401781</v>
       </c>
       <c r="B88" s="1">
         <v>497</v>
@@ -4631,7 +4631,7 @@
     <row r="89" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64960052787135614</v>
+        <v>0.60946486106821562</v>
       </c>
       <c r="B89" s="1">
         <v>443</v>
@@ -4652,7 +4652,7 @@
     <row r="90" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35023954370663424</v>
+        <v>0.30761280696130744</v>
       </c>
       <c r="B90" s="1">
         <v>595</v>
@@ -4676,7 +4676,7 @@
     <row r="91" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94602011943538866</v>
+        <v>0.1509262512931161</v>
       </c>
       <c r="B91" s="1">
         <v>520</v>
@@ -4700,7 +4700,7 @@
     <row r="92" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71175148820761946</v>
+        <v>0.70629456863299922</v>
       </c>
       <c r="B92" s="1">
         <v>455</v>
@@ -4721,7 +4721,7 @@
     <row r="93" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34955686810773834</v>
+        <v>0.94204101418033859</v>
       </c>
       <c r="B93" s="1">
         <v>451</v>
@@ -4742,7 +4742,7 @@
     <row r="94" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17907470376030787</v>
+        <v>0.75908867083276632</v>
       </c>
       <c r="B94" s="1">
         <v>535</v>
@@ -4766,7 +4766,7 @@
     <row r="95" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44880158028245809</v>
+        <v>0.54484933194094365</v>
       </c>
       <c r="B95" s="1">
         <v>510</v>
@@ -4790,7 +4790,7 @@
     <row r="96" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46014721236322298</v>
+        <v>0.35226434623132685</v>
       </c>
       <c r="B96" s="1">
         <v>312</v>
@@ -4814,7 +4814,7 @@
     <row r="97" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61199396558189423</v>
+        <v>0.56560531455866658</v>
       </c>
       <c r="B97" s="1">
         <v>384</v>
@@ -4838,7 +4838,7 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90288982434544851</v>
+        <v>0.23213847856533654</v>
       </c>
       <c r="B98" s="1">
         <v>484</v>
@@ -4859,7 +4859,7 @@
     <row r="99" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98718424710829544</v>
+        <v>0.94197245027597021</v>
       </c>
       <c r="B99" s="1">
         <v>453</v>
@@ -4880,7 +4880,7 @@
     <row r="100" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42088104819327066</v>
+        <v>0.79672091088984709</v>
       </c>
       <c r="B100" s="1">
         <v>457</v>
@@ -4904,7 +4904,7 @@
     <row r="101" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9140876884361684E-2</v>
+        <v>0.87906515230134963</v>
       </c>
       <c r="B101" s="1">
         <v>425</v>
@@ -4928,7 +4928,7 @@
     <row r="102" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30185739579353843</v>
+        <v>0.4981256702589022</v>
       </c>
       <c r="B102" s="1">
         <v>674</v>
@@ -4955,7 +4955,7 @@
     <row r="103" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84152614437011053</v>
+        <v>0.35982222553139309</v>
       </c>
       <c r="B103" s="1">
         <v>230</v>
@@ -4976,7 +4976,7 @@
     <row r="104" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.561199681949049E-2</v>
+        <v>0.18992516655943437</v>
       </c>
       <c r="B104" s="1">
         <v>432</v>
@@ -4997,7 +4997,7 @@
     <row r="105" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24898273452229414</v>
+        <v>0.73473287791338548</v>
       </c>
       <c r="B105" s="1">
         <v>435</v>
@@ -5018,7 +5018,7 @@
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93388497729139641</v>
+        <v>0.10437740438216814</v>
       </c>
       <c r="B106" s="1">
         <v>544</v>
@@ -5042,7 +5042,7 @@
     <row r="107" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91549989550279454</v>
+        <v>4.4866407737581659E-2</v>
       </c>
       <c r="B107" s="1">
         <v>292</v>
@@ -5063,7 +5063,7 @@
     <row r="108" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6102965216395342E-2</v>
+        <v>0.51942453466053395</v>
       </c>
       <c r="B108" s="1">
         <v>352</v>
@@ -5084,7 +5084,7 @@
     <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24587376023466334</v>
+        <v>0.70442950362362744</v>
       </c>
       <c r="B109" s="1">
         <v>478</v>
@@ -5108,7 +5108,7 @@
     <row r="110" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81947643380464708</v>
+        <v>0.49491555739226656</v>
       </c>
       <c r="B110" s="1">
         <v>678</v>
@@ -5129,7 +5129,7 @@
     <row r="111" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2563560130147589E-2</v>
+        <v>0.86468075085142404</v>
       </c>
       <c r="B111" s="1">
         <v>677</v>
@@ -5150,7 +5150,7 @@
     <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33525964836302924</v>
+        <v>0.27135789288671419</v>
       </c>
       <c r="B112" s="1">
         <v>597</v>
@@ -5174,7 +5174,7 @@
     <row r="113" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71186958828855995</v>
+        <v>0.40410982343454227</v>
       </c>
       <c r="B113" s="1">
         <v>299</v>
@@ -5198,7 +5198,7 @@
     <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34195714979019776</v>
+        <v>0.98539644191092857</v>
       </c>
       <c r="B114" s="1">
         <v>547</v>
@@ -5222,7 +5222,7 @@
     <row r="115" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4076812860759143E-2</v>
+        <v>0.30712474873883533</v>
       </c>
       <c r="B115" s="1">
         <v>271</v>
@@ -5246,7 +5246,7 @@
     <row r="116" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12378349087093887</v>
+        <v>0.76172359457329364</v>
       </c>
       <c r="B116" s="1">
         <v>255</v>
@@ -5273,7 +5273,7 @@
     <row r="117" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4889387802560794</v>
+        <v>0.22830214080800981</v>
       </c>
       <c r="B117" s="1">
         <v>479</v>
@@ -5300,7 +5300,7 @@
     <row r="118" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42571833413205229</v>
+        <v>0.52011817207152788</v>
       </c>
       <c r="B118" s="1">
         <v>262</v>
@@ -5324,7 +5324,7 @@
     <row r="119" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78754371518894561</v>
+        <v>6.0962614289187256E-2</v>
       </c>
       <c r="B119" s="1">
         <v>448</v>
@@ -5345,7 +5345,7 @@
     <row r="120" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21172691137508415</v>
+        <v>0.84957234935252512</v>
       </c>
       <c r="B120" s="1">
         <v>440</v>
@@ -5366,7 +5366,7 @@
     <row r="121" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.937743613252219</v>
+        <v>0.43809125090192025</v>
       </c>
       <c r="B121" s="1">
         <v>578</v>
@@ -5396,7 +5396,7 @@
     <row r="122" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98982982954177534</v>
+        <v>0.20356876719238648</v>
       </c>
       <c r="B122" s="1">
         <v>653</v>
@@ -5420,7 +5420,7 @@
     <row r="123" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23549280717654775</v>
+        <v>0.77974966978730764</v>
       </c>
       <c r="B123" s="1">
         <v>318</v>
@@ -5444,7 +5444,7 @@
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29652186477126496</v>
+        <v>0.63746504634641621</v>
       </c>
       <c r="B124" s="1">
         <v>503</v>
@@ -5465,7 +5465,7 @@
     <row r="125" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43070036830580416</v>
+        <v>0.24082134747414974</v>
       </c>
       <c r="B125" s="1">
         <v>625</v>
@@ -5492,7 +5492,7 @@
     <row r="126" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34951358903525731</v>
+        <v>0.66026864095222149</v>
       </c>
       <c r="B126" s="1">
         <v>337</v>
@@ -5519,7 +5519,7 @@
     <row r="127" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7577508148910375E-2</v>
+        <v>0.94223717575101074</v>
       </c>
       <c r="B127" s="1">
         <v>214</v>
@@ -5540,7 +5540,7 @@
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24724552423572532</v>
+        <v>0.80244665082404587</v>
       </c>
       <c r="B128" s="1">
         <v>617</v>
@@ -5564,7 +5564,7 @@
     <row r="129" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90032265533345124</v>
+        <v>3.8950425443347036E-2</v>
       </c>
       <c r="B129" s="1">
         <v>268</v>
@@ -5588,7 +5588,7 @@
     <row r="130" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.91710314707127971</v>
+        <v>6.1241705295608129E-2</v>
       </c>
       <c r="B130" s="1">
         <v>487</v>
@@ -5612,7 +5612,7 @@
     <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62619935015295425</v>
+        <v>0.22149080833655277</v>
       </c>
       <c r="B131" s="1">
         <v>506</v>
@@ -5639,7 +5639,7 @@
     <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24727014784535217</v>
+        <v>0.20550338182642913</v>
       </c>
       <c r="B132" s="1">
         <v>399</v>
@@ -5663,7 +5663,7 @@
     <row r="133" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75590865199081525</v>
+        <v>0.52384161770669924</v>
       </c>
       <c r="B133" s="1">
         <v>360</v>
@@ -5684,7 +5684,7 @@
     <row r="134" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3079821969778872</v>
+        <v>0.13383212267612765</v>
       </c>
       <c r="B134" s="1">
         <v>377</v>
@@ -5705,7 +5705,7 @@
     <row r="135" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52165805284195599</v>
+        <v>0.77619727838916386</v>
       </c>
       <c r="B135" s="1">
         <v>267</v>
@@ -5729,7 +5729,7 @@
     <row r="136" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19032394248378681</v>
+        <v>0.76271992382548115</v>
       </c>
       <c r="B136" s="1">
         <v>321</v>
@@ -5753,7 +5753,7 @@
     <row r="137" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42497121848878483</v>
+        <v>0.76584056777946818</v>
       </c>
       <c r="B137" s="1">
         <v>298</v>
@@ -5777,7 +5777,7 @@
     <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90192918256901966</v>
+        <v>0.30469725043267049</v>
       </c>
       <c r="B138" s="1">
         <v>540</v>
@@ -5801,7 +5801,7 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52062710989307492</v>
+        <v>3.1190655505292431E-2</v>
       </c>
       <c r="B139" s="1">
         <v>640</v>
@@ -5825,7 +5825,7 @@
     <row r="140" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45276880542751574</v>
+        <v>0.65536751017679007</v>
       </c>
       <c r="B140" s="1">
         <v>607</v>
@@ -5849,7 +5849,7 @@
     <row r="141" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34454092334295128</v>
+        <v>0.70091733780717347</v>
       </c>
       <c r="B141" s="1">
         <v>242</v>
@@ -5870,7 +5870,7 @@
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4355448113619923</v>
+        <v>7.4265911607242607E-2</v>
       </c>
       <c r="B142" s="1">
         <v>505</v>
@@ -5894,7 +5894,7 @@
     <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35436601435682125</v>
+        <v>0.65456115542777416</v>
       </c>
       <c r="B143" s="1">
         <v>387</v>
@@ -5918,7 +5918,7 @@
     <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54073206241752969</v>
+        <v>0.72818530976461959</v>
       </c>
       <c r="B144" s="1">
         <v>615</v>
@@ -5942,7 +5942,7 @@
     <row r="145" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17380401280699442</v>
+        <v>0.49711726936226674</v>
       </c>
       <c r="B145" s="1">
         <v>405</v>
@@ -5966,7 +5966,7 @@
     <row r="146" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85639540819938942</v>
+        <v>0.46815827190028847</v>
       </c>
       <c r="B146" s="1">
         <v>378</v>
@@ -5987,7 +5987,7 @@
     <row r="147" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29554319344343594</v>
+        <v>3.7101461929195834E-2</v>
       </c>
       <c r="B147" s="1">
         <v>290</v>
@@ -6008,7 +6008,7 @@
     <row r="148" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11875189412773557</v>
+        <v>0.42347028816466681</v>
       </c>
       <c r="B148" s="1">
         <v>315</v>
@@ -6038,7 +6038,7 @@
     <row r="149" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46408109884857585</v>
+        <v>0.86927250436996839</v>
       </c>
       <c r="B149" s="1">
         <v>228</v>
@@ -6065,7 +6065,7 @@
     <row r="150" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84510008223551469</v>
+        <v>0.40131572277329408</v>
       </c>
       <c r="B150" s="1">
         <v>372</v>
@@ -6089,7 +6089,7 @@
     <row r="151" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59837562270430034</v>
+        <v>0.40279089429629167</v>
       </c>
       <c r="B151" s="1">
         <v>581</v>
@@ -6116,7 +6116,7 @@
     <row r="152" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12665614870365893</v>
+        <v>0.58019614641890982</v>
       </c>
       <c r="B152" s="1">
         <v>334</v>
@@ -6143,7 +6143,7 @@
     <row r="153" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1509091086449037</v>
+        <v>0.77579294751670591</v>
       </c>
       <c r="B153" s="1">
         <v>231</v>
@@ -6164,7 +6164,7 @@
     <row r="154" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84632788632994771</v>
+        <v>0.90945582797793056</v>
       </c>
       <c r="B154" s="1">
         <v>332</v>
@@ -6191,7 +6191,7 @@
     <row r="155" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25409345119278492</v>
+        <v>0.67702726811933556</v>
       </c>
       <c r="B155" s="1">
         <v>400</v>
@@ -6215,7 +6215,7 @@
     <row r="156" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.649151427106978E-3</v>
+        <v>0.98158435711145886</v>
       </c>
       <c r="B156" s="1">
         <v>472</v>
@@ -6239,7 +6239,7 @@
     <row r="157" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90854874592027901</v>
+        <v>0.18215119033820604</v>
       </c>
       <c r="B157" s="1">
         <v>323</v>
@@ -6263,7 +6263,7 @@
     <row r="158" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65277360876200663</v>
+        <v>0.40337912144786958</v>
       </c>
       <c r="B158" s="1">
         <v>699</v>
@@ -6287,7 +6287,7 @@
     <row r="159" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32697266613587483</v>
+        <v>0.89068708831802224</v>
       </c>
       <c r="B159" s="1">
         <v>514</v>
@@ -6308,7 +6308,7 @@
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48530225870702126</v>
+        <v>0.8628022893649171</v>
       </c>
       <c r="B160" s="1">
         <v>693</v>
@@ -6332,7 +6332,7 @@
     <row r="161" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11408272472921777</v>
+        <v>0.53152365732804063</v>
       </c>
       <c r="B161" s="1">
         <v>671</v>
@@ -6362,7 +6362,7 @@
     <row r="162" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56200000488595159</v>
+        <v>0.98719695667874641</v>
       </c>
       <c r="B162" s="1">
         <v>689</v>
@@ -6386,7 +6386,7 @@
     <row r="163" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11070186668203486</v>
+        <v>3.1845433616009999E-2</v>
       </c>
       <c r="B163" s="1">
         <v>620</v>
@@ -6413,7 +6413,7 @@
     <row r="164" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49520513143325195</v>
+        <v>0.15313104374234177</v>
       </c>
       <c r="B164" s="1">
         <v>265</v>
@@ -6434,7 +6434,7 @@
     <row r="165" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24500206854498641</v>
+        <v>0.39710771407996548</v>
       </c>
       <c r="B165" s="1">
         <v>577</v>
@@ -6461,7 +6461,7 @@
     <row r="166" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80652393842428283</v>
+        <v>0.41353482987096002</v>
       </c>
       <c r="B166" s="1">
         <v>385</v>
@@ -6482,7 +6482,7 @@
     <row r="167" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97431946142237391</v>
+        <v>0.21870656811396338</v>
       </c>
       <c r="B167" s="1">
         <v>398</v>
@@ -6503,7 +6503,7 @@
     <row r="168" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51093708255719461</v>
+        <v>0.53222094627916172</v>
       </c>
       <c r="B168" s="1">
         <v>588</v>
@@ -6524,7 +6524,7 @@
     <row r="169" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27841200713278214</v>
+        <v>3.9359335322739608E-2</v>
       </c>
       <c r="B169" s="1">
         <v>410</v>
@@ -6545,7 +6545,7 @@
     <row r="170" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6099857769958863</v>
+        <v>0.72555033045073658</v>
       </c>
       <c r="B170" s="1">
         <v>389</v>
@@ -6569,7 +6569,7 @@
     <row r="171" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61832600851181063</v>
+        <v>0.12936706860625569</v>
       </c>
       <c r="B171" s="1">
         <v>311</v>
@@ -6593,7 +6593,7 @@
     <row r="172" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67065760378746486</v>
+        <v>0.58123105590429969</v>
       </c>
       <c r="B172" s="1">
         <v>338</v>
@@ -6620,7 +6620,7 @@
     <row r="173" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58577781761964254</v>
+        <v>0.4578526587023638</v>
       </c>
       <c r="B173" s="1">
         <v>559</v>
@@ -6644,7 +6644,7 @@
     <row r="174" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90619539549069539</v>
+        <v>2.3507949210667567E-2</v>
       </c>
       <c r="B174" s="1">
         <v>590</v>
@@ -6671,7 +6671,7 @@
     <row r="175" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68004960527849911</v>
+        <v>0.13825630539392575</v>
       </c>
       <c r="B175" s="1">
         <v>654</v>
@@ -6692,7 +6692,7 @@
     <row r="176" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37775928906750433</v>
+        <v>0.2851300534228034</v>
       </c>
       <c r="B176" s="1">
         <v>452</v>
@@ -6713,7 +6713,7 @@
     <row r="177" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69113241026042949</v>
+        <v>1.3736240607909234E-2</v>
       </c>
       <c r="B177" s="1">
         <v>304</v>
@@ -6734,7 +6734,7 @@
     <row r="178" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8.2031161298829702E-2</v>
+        <v>0.40172830647992919</v>
       </c>
       <c r="B178" s="1">
         <v>289</v>
@@ -6758,7 +6758,7 @@
     <row r="179" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84452507333105997</v>
+        <v>0.88860373371999579</v>
       </c>
       <c r="B179" s="1">
         <v>403</v>
@@ -6785,7 +6785,7 @@
     <row r="180" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63140085079409458</v>
+        <v>0.6451742233701071</v>
       </c>
       <c r="B180" s="1">
         <v>275</v>
@@ -6812,7 +6812,7 @@
     <row r="181" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12819739503318139</v>
+        <v>0.67250451136564626</v>
       </c>
       <c r="B181" s="1">
         <v>369</v>
@@ -6836,7 +6836,7 @@
     <row r="182" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54446651301997784</v>
+        <v>0.29118219255895583</v>
       </c>
       <c r="B182" s="1">
         <v>277</v>
@@ -6860,7 +6860,7 @@
     <row r="183" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33197235283208404</v>
+        <v>0.42926346315337904</v>
       </c>
       <c r="B183" s="1">
         <v>697</v>
@@ -6884,7 +6884,7 @@
     <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33146987878988954</v>
+        <v>0.52746247135436519</v>
       </c>
       <c r="B184" s="1">
         <v>526</v>
@@ -6911,7 +6911,7 @@
     <row r="185" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25975238458483718</v>
+        <v>0.94378257050504821</v>
       </c>
       <c r="B185" s="1">
         <v>224</v>
@@ -6935,7 +6935,7 @@
     <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4790175649578895</v>
+        <v>0.20517967184214014</v>
       </c>
       <c r="B186" s="1">
         <v>502</v>
@@ -6956,7 +6956,7 @@
     <row r="187" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92924975321647374</v>
+        <v>0.78870535824851029</v>
       </c>
       <c r="B187" s="1">
         <v>430</v>
@@ -6977,7 +6977,7 @@
     <row r="188" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9895324694227443E-2</v>
+        <v>0.6227045245515449</v>
       </c>
       <c r="B188" s="1">
         <v>307</v>
@@ -7001,7 +7001,7 @@
     <row r="189" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44681518214385663</v>
+        <v>0.28162896484143818</v>
       </c>
       <c r="B189" s="1">
         <v>279</v>
@@ -7025,7 +7025,7 @@
     <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33735570193836983</v>
+        <v>0.46721892745407556</v>
       </c>
       <c r="B190" s="1">
         <v>297</v>
@@ -7049,7 +7049,7 @@
     <row r="191" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39406620201716469</v>
+        <v>0.3801526931489887</v>
       </c>
       <c r="B191" s="1">
         <v>525</v>
@@ -7073,7 +7073,7 @@
     <row r="192" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0508912494773814E-2</v>
+        <v>0.2959483525977975</v>
       </c>
       <c r="B192" s="1">
         <v>339</v>
@@ -7097,7 +7097,7 @@
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4203944046245478</v>
+        <v>0.72610739403577074</v>
       </c>
       <c r="B193" s="1">
         <v>662</v>
@@ -7121,7 +7121,7 @@
     <row r="194" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.63543260193401863</v>
+        <v>0.98701625946438543</v>
       </c>
       <c r="B194" s="1">
         <v>358</v>
@@ -7142,7 +7142,7 @@
     <row r="195" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9897328286369733E-2</v>
+        <v>0.15660150581009158</v>
       </c>
       <c r="B195" s="1">
         <v>628</v>
@@ -7166,7 +7166,7 @@
     <row r="196" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64590428698579927</v>
+        <v>0.94498005435867471</v>
       </c>
       <c r="B196" s="1">
         <v>676</v>
@@ -7187,7 +7187,7 @@
     <row r="197" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.925537218617416E-2</v>
+        <v>0.36380964833534646</v>
       </c>
       <c r="B197" s="1">
         <v>353</v>
@@ -7208,7 +7208,7 @@
     <row r="198" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94352215053270883</v>
+        <v>0.44216065854197895</v>
       </c>
       <c r="B198" s="1">
         <v>486</v>
@@ -7232,7 +7232,7 @@
     <row r="199" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11383573468924846</v>
+        <v>0.47379688589755065</v>
       </c>
       <c r="B199" s="1">
         <v>680</v>
@@ -7253,7 +7253,7 @@
     <row r="200" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55849409987778131</v>
+        <v>0.11308926148833598</v>
       </c>
       <c r="B200" s="1">
         <v>326</v>
@@ -7277,7 +7277,7 @@
     <row r="201" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15151124337806054</v>
+        <v>6.8759685647179047E-2</v>
       </c>
       <c r="B201" s="1">
         <v>281</v>
@@ -7304,7 +7304,7 @@
     <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15102717555562428</v>
+        <v>0.54328964663509216</v>
       </c>
       <c r="B202" s="1">
         <v>548</v>
@@ -7331,7 +7331,7 @@
     <row r="203" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8382214214054455E-3</v>
+        <v>0.33606042379777457</v>
       </c>
       <c r="B203" s="1">
         <v>579</v>
@@ -7355,7 +7355,7 @@
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2660667403963477</v>
+        <v>0.94277439327923585</v>
       </c>
       <c r="B204" s="1">
         <v>386</v>
@@ -7382,7 +7382,7 @@
     <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1545637140007075E-2</v>
+        <v>0.35897637544795769</v>
       </c>
       <c r="B205" s="1">
         <v>560</v>
@@ -7406,7 +7406,7 @@
     <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3531510738741175E-2</v>
+        <v>0.82963117580980006</v>
       </c>
       <c r="B206" s="1">
         <v>659</v>
@@ -7430,7 +7430,7 @@
     <row r="207" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77174149051526209</v>
+        <v>0.44162664833989551</v>
       </c>
       <c r="B207" s="1">
         <v>263</v>
@@ -7454,7 +7454,7 @@
     <row r="208" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62371025994883811</v>
+        <v>5.8959058167241452E-2</v>
       </c>
       <c r="B208" s="1">
         <v>441</v>
@@ -7475,7 +7475,7 @@
     <row r="209" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40023458418420266</v>
+        <v>6.4873737230997541E-2</v>
       </c>
       <c r="B209" s="1">
         <v>602</v>
@@ -7496,7 +7496,7 @@
     <row r="210" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25680489396223205</v>
+        <v>0.16226212464013157</v>
       </c>
       <c r="B210" s="1">
         <v>488</v>
@@ -7523,7 +7523,7 @@
     <row r="211" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16178225779461397</v>
+        <v>0.51209977887447733</v>
       </c>
       <c r="B211" s="1">
         <v>450</v>
@@ -7544,7 +7544,7 @@
     <row r="212" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13996180409727099</v>
+        <v>0.71571300668753335</v>
       </c>
       <c r="B212" s="1">
         <v>278</v>
@@ -7568,7 +7568,7 @@
     <row r="213" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99455298597910935</v>
+        <v>0.31074783171383913</v>
       </c>
       <c r="B213" s="1">
         <v>273</v>
@@ -7592,7 +7592,7 @@
     <row r="214" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62435609824729243</v>
+        <v>0.27374499529525353</v>
       </c>
       <c r="B214" s="1">
         <v>284</v>
@@ -7616,7 +7616,7 @@
     <row r="215" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39004039824555525</v>
+        <v>0.16852588102260579</v>
       </c>
       <c r="B215" s="1">
         <v>383</v>
@@ -7643,7 +7643,7 @@
     <row r="216" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87213201500507587</v>
+        <v>0.35967291341249741</v>
       </c>
       <c r="B216" s="1">
         <v>539</v>
@@ -7667,7 +7667,7 @@
     <row r="217" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56034256555158579</v>
+        <v>4.7113290241061145E-2</v>
       </c>
       <c r="B217" s="1">
         <v>406</v>
@@ -7688,7 +7688,7 @@
     <row r="218" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26772375830505313</v>
+        <v>0.18701981006889201</v>
       </c>
       <c r="B218" s="1">
         <v>236</v>
@@ -7709,7 +7709,7 @@
     <row r="219" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35779902466517177</v>
+        <v>0.87025764163860875</v>
       </c>
       <c r="B219" s="1">
         <v>355</v>
@@ -7730,7 +7730,7 @@
     <row r="220" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44406374867228537</v>
+        <v>0.81433505200009937</v>
       </c>
       <c r="B220" s="1">
         <v>354</v>
@@ -7751,7 +7751,7 @@
     <row r="221" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21947977807931196</v>
+        <v>0.70731032557164242</v>
       </c>
       <c r="B221" s="1">
         <v>516</v>
@@ -7778,7 +7778,7 @@
     <row r="222" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.623163082959175</v>
+        <v>0.93147231208477876</v>
       </c>
       <c r="B222" s="1">
         <v>656</v>
@@ -7799,7 +7799,7 @@
     <row r="223" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33131412999518439</v>
+        <v>0.3130023738714014</v>
       </c>
       <c r="B223" s="1">
         <v>524</v>
@@ -7832,7 +7832,7 @@
     <row r="224" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40451578806623645</v>
+        <v>1.7608453387302436E-2</v>
       </c>
       <c r="B224" s="1">
         <v>669</v>
@@ -7859,7 +7859,7 @@
     <row r="225" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10812367076104967</v>
+        <v>0.45879471673294014</v>
       </c>
       <c r="B225" s="1">
         <v>605</v>
@@ -7883,7 +7883,7 @@
     <row r="226" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99634169084303936</v>
+        <v>0.31447185835352265</v>
       </c>
       <c r="B226" s="1">
         <v>624</v>
@@ -7913,7 +7913,7 @@
     <row r="227" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42341682569532357</v>
+        <v>7.4946258801393384E-2</v>
       </c>
       <c r="B227" s="1">
         <v>317</v>
@@ -7937,7 +7937,7 @@
     <row r="228" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45075649023097208</v>
+        <v>0.45590644284904658</v>
       </c>
       <c r="B228" s="1">
         <v>499</v>
@@ -7964,7 +7964,7 @@
     <row r="229" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35801810376029131</v>
+        <v>0.44282722707994548</v>
       </c>
       <c r="B229" s="1">
         <v>462</v>
@@ -7988,7 +7988,7 @@
     <row r="230" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15790990069709998</v>
+        <v>0.99345421161385283</v>
       </c>
       <c r="B230" s="1">
         <v>658</v>
@@ -8009,7 +8009,7 @@
     <row r="231" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16507091151400599</v>
+        <v>0.58046157737396009</v>
       </c>
       <c r="B231" s="1">
         <v>684</v>
@@ -8036,7 +8036,7 @@
     <row r="232" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32395552537628447</v>
+        <v>0.52482283729633472</v>
       </c>
       <c r="B232" s="1">
         <v>333</v>
@@ -8060,7 +8060,7 @@
     <row r="233" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28178764249378863</v>
+        <v>0.36485731567842083</v>
       </c>
       <c r="B233" s="1">
         <v>515</v>
@@ -8084,7 +8084,7 @@
     <row r="234" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17579758055351913</v>
+        <v>4.1564804418686707E-3</v>
       </c>
       <c r="B234" s="1">
         <v>485</v>
@@ -8108,7 +8108,7 @@
     <row r="235" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54708896817206898</v>
+        <v>0.32560710503883539</v>
       </c>
       <c r="B235" s="1">
         <v>373</v>
@@ -8129,7 +8129,7 @@
     <row r="236" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5565654058006499E-2</v>
+        <v>0.28424006625056353</v>
       </c>
       <c r="B236" s="1">
         <v>220</v>
@@ -8150,7 +8150,7 @@
     <row r="237" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88225288389229639</v>
+        <v>0.71844443487522436</v>
       </c>
       <c r="B237" s="1">
         <v>708</v>
@@ -8174,7 +8174,7 @@
     <row r="238" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8721721789774588</v>
+        <v>0.14772800374346118</v>
       </c>
       <c r="B238" s="1">
         <v>414</v>
@@ -8198,7 +8198,7 @@
     <row r="239" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58731741686054817</v>
+        <v>0.37664897615280679</v>
       </c>
       <c r="B239" s="1">
         <v>665</v>
@@ -8219,7 +8219,7 @@
     <row r="240" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60429036432181249</v>
+        <v>0.16847951418495288</v>
       </c>
       <c r="B240" s="1">
         <v>630</v>
@@ -8246,7 +8246,7 @@
     <row r="241" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37795757540708674</v>
+        <v>0.69497919743883652</v>
       </c>
       <c r="B241" s="1">
         <v>276</v>
@@ -8270,7 +8270,7 @@
     <row r="242" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58655929849879473</v>
+        <v>7.3369543873896825E-3</v>
       </c>
       <c r="B242" s="1">
         <v>632</v>
@@ -8294,7 +8294,7 @@
     <row r="243" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90886420782712607</v>
+        <v>0.54183770904449036</v>
       </c>
       <c r="B243" s="1">
         <v>227</v>
@@ -8318,7 +8318,7 @@
     <row r="244" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84364568523304251</v>
+        <v>0.63012524258562452</v>
       </c>
       <c r="B244" s="1">
         <v>616</v>
@@ -8342,7 +8342,7 @@
     <row r="245" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72153312646587686</v>
+        <v>0.25376759300394169</v>
       </c>
       <c r="B245" s="1">
         <v>215</v>
@@ -8363,7 +8363,7 @@
     <row r="246" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3371272573949673E-2</v>
+        <v>0.2210330732986221</v>
       </c>
       <c r="B246" s="1">
         <v>655</v>
@@ -8390,7 +8390,7 @@
     <row r="247" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30780009122147001</v>
+        <v>0.15847695936505679</v>
       </c>
       <c r="B247" s="1">
         <v>260</v>
@@ -8414,7 +8414,7 @@
     <row r="248" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43469106062942853</v>
+        <v>0.46950028719863501</v>
       </c>
       <c r="B248" s="1">
         <v>431</v>
@@ -8435,7 +8435,7 @@
     <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68292210874594228</v>
+        <v>2.7584243935696362E-2</v>
       </c>
       <c r="B249" s="1">
         <v>707</v>
@@ -8459,7 +8459,7 @@
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34798245090255586</v>
+        <v>0.92680114329910146</v>
       </c>
       <c r="B250" s="1">
         <v>409</v>
@@ -8483,7 +8483,7 @@
     <row r="251" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29555848146155295</v>
+        <v>0.80201764878301751</v>
       </c>
       <c r="B251" s="1">
         <v>609</v>
@@ -8507,7 +8507,7 @@
     <row r="252" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91081581093764219</v>
+        <v>0.32131367155667845</v>
       </c>
       <c r="B252" s="1">
         <v>362</v>
@@ -8528,7 +8528,7 @@
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4255109241106103E-2</v>
+        <v>0.16523048572851939</v>
       </c>
       <c r="B253" s="1">
         <v>218</v>
@@ -8549,7 +8549,7 @@
     <row r="254" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89525663768655084</v>
+        <v>0.32189103256107421</v>
       </c>
       <c r="B254" s="1">
         <v>459</v>
@@ -8570,7 +8570,7 @@
     <row r="255" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73414331196536453</v>
+        <v>0.92520671480950767</v>
       </c>
       <c r="B255" s="1">
         <v>391</v>
@@ -8591,7 +8591,7 @@
     <row r="256" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33082251008587538</v>
+        <v>0.84481881220110444</v>
       </c>
       <c r="B256" s="1">
         <v>413</v>
@@ -8612,7 +8612,7 @@
     <row r="257" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6569680680541228E-2</v>
+        <v>0.37519398826587402</v>
       </c>
       <c r="B257" s="1">
         <v>468</v>
@@ -8636,7 +8636,7 @@
     <row r="258" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <f t="shared" ref="A258:A321" ca="1" si="4">RAND()</f>
-        <v>9.4032723250384587E-3</v>
+        <v>8.2131729984578072E-2</v>
       </c>
       <c r="B258" s="1">
         <v>534</v>
@@ -8663,7 +8663,7 @@
     <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94106469203426879</v>
+        <v>0.42365932278646723</v>
       </c>
       <c r="B259" s="1">
         <v>285</v>
@@ -8687,7 +8687,7 @@
     <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4414966949470811</v>
+        <v>0.54268799207826901</v>
       </c>
       <c r="B260" s="1">
         <v>481</v>
@@ -8711,7 +8711,7 @@
     <row r="261" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15047323475479701</v>
+        <v>0.81595072749539321</v>
       </c>
       <c r="B261" s="1">
         <v>300</v>
@@ -8732,7 +8732,7 @@
     <row r="262" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87909101849688021</v>
+        <v>0.5831754418103634</v>
       </c>
       <c r="B262" s="1">
         <v>388</v>
@@ -8753,7 +8753,7 @@
     <row r="263" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59717048378130133</v>
+        <v>0.25309864795931158</v>
       </c>
       <c r="B263" s="1">
         <v>557</v>
@@ -8777,7 +8777,7 @@
     <row r="264" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93885477129278749</v>
+        <v>0.24613820771545292</v>
       </c>
       <c r="B264" s="1">
         <v>633</v>
@@ -8801,7 +8801,7 @@
     <row r="265" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70859092104390453</v>
+        <v>0.55490524393179008</v>
       </c>
       <c r="B265" s="1">
         <v>293</v>
@@ -8828,7 +8828,7 @@
     <row r="266" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93283074253528619</v>
+        <v>0.66924944366342465</v>
       </c>
       <c r="B266" s="1">
         <v>679</v>
@@ -8852,7 +8852,7 @@
     <row r="267" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13473441638984096</v>
+        <v>0.48041812932291394</v>
       </c>
       <c r="B267" s="1">
         <v>537</v>
@@ -8876,7 +8876,7 @@
     <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81727457143597371</v>
+        <v>0.25595708992800836</v>
       </c>
       <c r="B268" s="1">
         <v>266</v>
@@ -8897,7 +8897,7 @@
     <row r="269" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54275740656367766</v>
+        <v>0.6058030481792962</v>
       </c>
       <c r="B269" s="1">
         <v>492</v>
@@ -8921,7 +8921,7 @@
     <row r="270" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62996270443642621</v>
+        <v>0.16687288652599208</v>
       </c>
       <c r="B270" s="1">
         <v>543</v>
@@ -8948,7 +8948,7 @@
     <row r="271" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22871986247125797</v>
+        <v>0.83476286483427498</v>
       </c>
       <c r="B271" s="1">
         <v>634</v>
@@ -8975,7 +8975,7 @@
     <row r="272" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48321396413749629</v>
+        <v>0.23119368536851936</v>
       </c>
       <c r="B272" s="1">
         <v>327</v>
@@ -8996,7 +8996,7 @@
     <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68602262282596393</v>
+        <v>0.69555556209666114</v>
       </c>
       <c r="B273" s="1">
         <v>660</v>
@@ -9023,7 +9023,7 @@
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26122608015170989</v>
+        <v>8.9088662986311351E-2</v>
       </c>
       <c r="B274" s="1">
         <v>705</v>
@@ -9044,7 +9044,7 @@
     <row r="275" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12259066123609641</v>
+        <v>0.15205461078052041</v>
       </c>
       <c r="B275" s="1">
         <v>341</v>
@@ -9065,7 +9065,7 @@
     <row r="276" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6179794485742407</v>
+        <v>0.22360942744633705</v>
       </c>
       <c r="B276" s="1">
         <v>627</v>
@@ -9092,7 +9092,7 @@
     <row r="277" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99786539881975977</v>
+        <v>0.912873348329025</v>
       </c>
       <c r="B277" s="1">
         <v>411</v>
@@ -9119,7 +9119,7 @@
     <row r="278" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66723484422928292</v>
+        <v>0.27147398360472863</v>
       </c>
       <c r="B278" s="1">
         <v>709</v>
@@ -9143,7 +9143,7 @@
     <row r="279" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56515854947875865</v>
+        <v>0.25099244099417384</v>
       </c>
       <c r="B279" s="1">
         <v>368</v>
@@ -9167,7 +9167,7 @@
     <row r="280" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22320636339123556</v>
+        <v>0.1161024048020789</v>
       </c>
       <c r="B280" s="1">
         <v>233</v>
@@ -9188,7 +9188,7 @@
     <row r="281" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31056777507810807</v>
+        <v>0.89632672721488671</v>
       </c>
       <c r="B281" s="1">
         <v>340</v>
@@ -9215,7 +9215,7 @@
     <row r="282" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60925820413860277</v>
+        <v>0.71655180743842839</v>
       </c>
       <c r="B282" s="1">
         <v>580</v>
@@ -9239,7 +9239,7 @@
     <row r="283" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.862884643922737</v>
+        <v>0.26310771009486078</v>
       </c>
       <c r="B283" s="1">
         <v>286</v>
@@ -9263,7 +9263,7 @@
     <row r="284" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60373068966017462</v>
+        <v>0.37024943365162688</v>
       </c>
       <c r="B284" s="1">
         <v>249</v>
@@ -9287,7 +9287,7 @@
     <row r="285" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55572913920963463</v>
+        <v>0.88894023198256811</v>
       </c>
       <c r="B285" s="1">
         <v>589</v>
@@ -9314,7 +9314,7 @@
     <row r="286" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2293171081225212E-2</v>
+        <v>0.44176245892652755</v>
       </c>
       <c r="B286" s="1">
         <v>244</v>
@@ -9335,7 +9335,7 @@
     <row r="287" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71375142937463454</v>
+        <v>0.13950989874658237</v>
       </c>
       <c r="B287" s="1">
         <v>686</v>
@@ -9362,7 +9362,7 @@
     <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83379238622241381</v>
+        <v>0.90547342778695294</v>
       </c>
       <c r="B288" s="1">
         <v>477</v>
@@ -9389,7 +9389,7 @@
     <row r="289" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74226739273834952</v>
+        <v>0.73243384167453263</v>
       </c>
       <c r="B289" s="1">
         <v>460</v>
@@ -9410,7 +9410,7 @@
     <row r="290" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.91425945869024527</v>
+        <v>0.5900998950239742</v>
       </c>
       <c r="B290" s="1">
         <v>380</v>
@@ -9440,7 +9440,7 @@
     <row r="291" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94103670890378044</v>
+        <v>0.71146783672412184</v>
       </c>
       <c r="B291" s="1">
         <v>437</v>
@@ -9461,7 +9461,7 @@
     <row r="292" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4181623416971787</v>
+        <v>7.2669772400048682E-2</v>
       </c>
       <c r="B292" s="1">
         <v>325</v>
@@ -9488,7 +9488,7 @@
     <row r="293" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66811414249386081</v>
+        <v>0.14094334392476826</v>
       </c>
       <c r="B293" s="1">
         <v>587</v>
@@ -9518,7 +9518,7 @@
     <row r="294" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4954441518006965E-2</v>
+        <v>0.79519579737230395</v>
       </c>
       <c r="B294" s="1">
         <v>685</v>
@@ -9542,7 +9542,7 @@
     <row r="295" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59463881073290548</v>
+        <v>0.76672809853800761</v>
       </c>
       <c r="B295" s="1">
         <v>426</v>
@@ -9563,7 +9563,7 @@
     <row r="296" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65703536252757566</v>
+        <v>0.63777327251967264</v>
       </c>
       <c r="B296" s="1">
         <v>376</v>
@@ -9584,7 +9584,7 @@
     <row r="297" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.8897948076673402</v>
+        <v>0.6067060400188522</v>
       </c>
       <c r="B297" s="1">
         <v>641</v>
@@ -9608,7 +9608,7 @@
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14351696643030887</v>
+        <v>0.87147546947131704</v>
       </c>
       <c r="B298" s="1">
         <v>642</v>
@@ -9632,7 +9632,7 @@
     <row r="299" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0859304690865721E-2</v>
+        <v>0.95580074262034309</v>
       </c>
       <c r="B299" s="1">
         <v>471</v>
@@ -9656,7 +9656,7 @@
     <row r="300" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7.2981795094005153E-2</v>
+        <v>0.93842356380680869</v>
       </c>
       <c r="B300" s="1">
         <v>306</v>
@@ -9680,7 +9680,7 @@
     <row r="301" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38532392513527081</v>
+        <v>0.14746313544382073</v>
       </c>
       <c r="B301" s="1">
         <v>442</v>
@@ -9701,7 +9701,7 @@
     <row r="302" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43575460345249972</v>
+        <v>0.5087657058213203</v>
       </c>
       <c r="B302" s="1">
         <v>446</v>
@@ -9722,7 +9722,7 @@
     <row r="303" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6.0359035438966147E-2</v>
+        <v>0.85663159405596134</v>
       </c>
       <c r="B303" s="1">
         <v>345</v>
@@ -9749,7 +9749,7 @@
     <row r="304" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25353963986842143</v>
+        <v>0.53030854724401044</v>
       </c>
       <c r="B304" s="1">
         <v>241</v>
@@ -9770,7 +9770,7 @@
     <row r="305" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66581829957011862</v>
+        <v>0.59560333341682614</v>
       </c>
       <c r="B305" s="1">
         <v>498</v>
@@ -9791,7 +9791,7 @@
     <row r="306" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6.3211696061395983E-2</v>
+        <v>0.45103899886112242</v>
       </c>
       <c r="B306" s="1">
         <v>701</v>
@@ -9812,7 +9812,7 @@
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92276564964875185</v>
+        <v>0.5330644372268627</v>
       </c>
       <c r="B307" s="1">
         <v>303</v>
@@ -9836,7 +9836,7 @@
     <row r="308" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86121010358515282</v>
+        <v>0.13041411518635038</v>
       </c>
       <c r="B308" s="1">
         <v>483</v>
@@ -9857,7 +9857,7 @@
     <row r="309" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39211170544837826</v>
+        <v>0.18758780837164857</v>
       </c>
       <c r="B309" s="1">
         <v>347</v>
@@ -9881,7 +9881,7 @@
     <row r="310" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27486885030460506</v>
+        <v>0.83154456652506359</v>
       </c>
       <c r="B310" s="1">
         <v>636</v>
@@ -9905,7 +9905,7 @@
     <row r="311" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84157437519316125</v>
+        <v>0.89404572898270085</v>
       </c>
       <c r="B311" s="1">
         <v>223</v>
@@ -9929,7 +9929,7 @@
     <row r="312" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37057785340017557</v>
+        <v>0.58850240561756428</v>
       </c>
       <c r="B312" s="1">
         <v>566</v>
@@ -9950,7 +9950,7 @@
     <row r="313" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68183880168494715</v>
+        <v>0.14146578171640622</v>
       </c>
       <c r="B313" s="1">
         <v>381</v>
@@ -9971,7 +9971,7 @@
     <row r="314" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.1445069428720829E-2</v>
+        <v>0.56887055831045452</v>
       </c>
       <c r="B314" s="1">
         <v>549</v>
@@ -9995,7 +9995,7 @@
     <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31356760367627667</v>
+        <v>0.92453738653819872</v>
       </c>
       <c r="B315" s="1">
         <v>574</v>
@@ -10019,7 +10019,7 @@
     <row r="316" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61312862338503571</v>
+        <v>0.73615453814347653</v>
       </c>
       <c r="B316" s="1">
         <v>496</v>
@@ -10043,7 +10043,7 @@
     <row r="317" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31627047619033455</v>
+        <v>0.88397498563230714</v>
       </c>
       <c r="B317" s="1">
         <v>555</v>
@@ -10070,7 +10070,7 @@
     <row r="318" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58973817403113116</v>
+        <v>0.47509916121509843</v>
       </c>
       <c r="B318" s="1">
         <v>558</v>
@@ -10094,7 +10094,7 @@
     <row r="319" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7.0945348941893194E-2</v>
+        <v>0.64984690643855625</v>
       </c>
       <c r="B319" s="1">
         <v>364</v>
@@ -10115,7 +10115,7 @@
     <row r="320" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11614305041593997</v>
+        <v>0.90530333773884819</v>
       </c>
       <c r="B320" s="1">
         <v>247</v>
@@ -10142,7 +10142,7 @@
     <row r="321" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23942519085826497</v>
+        <v>0.5671576908022673</v>
       </c>
       <c r="B321" s="1">
         <v>600</v>
@@ -10172,7 +10172,7 @@
     <row r="322" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <f t="shared" ref="A322:A385" ca="1" si="5">RAND()</f>
-        <v>0.31104422863993997</v>
+        <v>0.26654268156841221</v>
       </c>
       <c r="B322" s="1">
         <v>644</v>
@@ -10199,7 +10199,7 @@
     <row r="323" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.91432919344804109</v>
+        <v>0.54287036929076715</v>
       </c>
       <c r="B323" s="1">
         <v>283</v>
@@ -10226,7 +10226,7 @@
     <row r="324" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89176822686266222</v>
+        <v>2.404819375557854E-2</v>
       </c>
       <c r="B324" s="1">
         <v>637</v>
@@ -10247,7 +10247,7 @@
     <row r="325" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79007964085117088</v>
+        <v>0.57972216502434115</v>
       </c>
       <c r="B325" s="1">
         <v>509</v>
@@ -10274,7 +10274,7 @@
     <row r="326" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86967598559154957</v>
+        <v>0.94672005094195399</v>
       </c>
       <c r="B326" s="1">
         <v>344</v>
@@ -10298,7 +10298,7 @@
     <row r="327" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24064756983897007</v>
+        <v>0.2618780582580843</v>
       </c>
       <c r="B327" s="1">
         <v>500</v>
@@ -10319,7 +10319,7 @@
     <row r="328" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73435726735140638</v>
+        <v>0.46190662609131805</v>
       </c>
       <c r="B328" s="1">
         <v>467</v>
@@ -10343,7 +10343,7 @@
     <row r="329" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59879367303849251</v>
+        <v>0.23827841924457638</v>
       </c>
       <c r="B329" s="1">
         <v>330</v>
@@ -10373,7 +10373,7 @@
     <row r="330" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38030807289624591</v>
+        <v>0.64513948030729873</v>
       </c>
       <c r="B330" s="1">
         <v>282</v>
@@ -10394,7 +10394,7 @@
     <row r="331" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2489147289717808</v>
+        <v>0.93612142706742163</v>
       </c>
       <c r="B331" s="1">
         <v>521</v>
@@ -10418,7 +10418,7 @@
     <row r="332" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8017399758312983</v>
+        <v>0.5948356954970877</v>
       </c>
       <c r="B332" s="1">
         <v>542</v>
@@ -10442,7 +10442,7 @@
     <row r="333" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25302647715315163</v>
+        <v>0.45711657854267196</v>
       </c>
       <c r="B333" s="1">
         <v>264</v>
@@ -10466,7 +10466,7 @@
     <row r="334" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44887583095897932</v>
+        <v>0.92507334862864998</v>
       </c>
       <c r="B334" s="1">
         <v>422</v>
@@ -10490,7 +10490,7 @@
     <row r="335" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57108216407061918</v>
+        <v>0.18819283705335066</v>
       </c>
       <c r="B335" s="1">
         <v>248</v>
@@ -10514,7 +10514,7 @@
     <row r="336" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48643384341956586</v>
+        <v>0.61961865843031672</v>
       </c>
       <c r="B336" s="1">
         <v>419</v>
@@ -10535,7 +10535,7 @@
     <row r="337" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52658681336864932</v>
+        <v>0.77604699274336475</v>
       </c>
       <c r="B337" s="1">
         <v>611</v>
@@ -10562,7 +10562,7 @@
     <row r="338" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89145522988092685</v>
+        <v>0.51590551237274673</v>
       </c>
       <c r="B338" s="1">
         <v>328</v>
@@ -10586,7 +10586,7 @@
     <row r="339" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68269164011163275</v>
+        <v>0.10586520994715054</v>
       </c>
       <c r="B339" s="1">
         <v>667</v>
@@ -10610,7 +10610,7 @@
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.91010851712539664</v>
+        <v>6.1429647997708337E-2</v>
       </c>
       <c r="B340" s="1">
         <v>706</v>
@@ -10634,7 +10634,7 @@
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28371835638188625</v>
+        <v>0.9512358614206684</v>
       </c>
       <c r="B341" s="1">
         <v>301</v>
@@ -10658,7 +10658,7 @@
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74147818267699495</v>
+        <v>0.98546347451304883</v>
       </c>
       <c r="B342" s="1">
         <v>545</v>
@@ -10688,7 +10688,7 @@
     <row r="343" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62631114317539827</v>
+        <v>0.58900843136226999</v>
       </c>
       <c r="B343" s="1">
         <v>456</v>
@@ -10709,7 +10709,7 @@
     <row r="344" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54872227138030816</v>
+        <v>0.44327590368095771</v>
       </c>
       <c r="B344" s="1">
         <v>270</v>
@@ -10733,7 +10733,7 @@
     <row r="345" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.91947600899882509</v>
+        <v>0.57677481264222796</v>
       </c>
       <c r="B345" s="1">
         <v>650</v>
@@ -10754,7 +10754,7 @@
     <row r="346" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79276178098187566</v>
+        <v>0.34177845085472869</v>
       </c>
       <c r="B346" s="1">
         <v>417</v>
@@ -10781,7 +10781,7 @@
     <row r="347" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88980946565064023</v>
+        <v>0.75513423361747767</v>
       </c>
       <c r="B347" s="1">
         <v>394</v>
@@ -10802,7 +10802,7 @@
     <row r="348" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64516320830995788</v>
+        <v>0.96533170884235087</v>
       </c>
       <c r="B348" s="1">
         <v>295</v>
@@ -10823,7 +10823,7 @@
     <row r="349" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39551743116242666</v>
+        <v>0.29605680272193147</v>
       </c>
       <c r="B349" s="1">
         <v>695</v>
@@ -10847,7 +10847,7 @@
     <row r="350" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.6358794631769396E-2</v>
+        <v>0.9500928529775321</v>
       </c>
       <c r="B350" s="1">
         <v>408</v>
@@ -10877,7 +10877,7 @@
     <row r="351" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36375822628401466</v>
+        <v>0.22066519325463541</v>
       </c>
       <c r="B351" s="1">
         <v>593</v>
@@ -10901,7 +10901,7 @@
     <row r="352" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82358552127397366</v>
+        <v>0.7201085449343827</v>
       </c>
       <c r="B352" s="1">
         <v>551</v>
@@ -10922,7 +10922,7 @@
     <row r="353" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34774944968635024</v>
+        <v>0.2040878057730422</v>
       </c>
       <c r="B353" s="1">
         <v>418</v>
@@ -10946,7 +10946,7 @@
     <row r="354" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39128376736515558</v>
+        <v>0.34468180452583785</v>
       </c>
       <c r="B354" s="1">
         <v>335</v>
@@ -10970,7 +10970,7 @@
     <row r="355" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5070110642327279</v>
+        <v>0.11307746969239596</v>
       </c>
       <c r="B355" s="1">
         <v>444</v>
@@ -11000,7 +11000,7 @@
     <row r="356" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9730018534478303</v>
+        <v>0.29321927794904923</v>
       </c>
       <c r="B356" s="1">
         <v>280</v>
@@ -11024,7 +11024,7 @@
     <row r="357" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13028911431059476</v>
+        <v>3.0200025468871794E-2</v>
       </c>
       <c r="B357" s="1">
         <v>501</v>
@@ -11045,7 +11045,7 @@
     <row r="358" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6.5101095152731103E-2</v>
+        <v>0.19406732553241091</v>
       </c>
       <c r="B358" s="1">
         <v>603</v>
@@ -11066,7 +11066,7 @@
     <row r="359" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8287814615890069</v>
+        <v>3.540038725705219E-2</v>
       </c>
       <c r="B359" s="1">
         <v>294</v>
@@ -11090,7 +11090,7 @@
     <row r="360" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50999068878664333</v>
+        <v>0.88203917315642943</v>
       </c>
       <c r="B360" s="1">
         <v>646</v>
@@ -11114,7 +11114,7 @@
     <row r="361" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17284073125566501</v>
+        <v>0.79061188295403906</v>
       </c>
       <c r="B361" s="1">
         <v>421</v>
@@ -11141,7 +11141,7 @@
     <row r="362" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56069169459076884</v>
+        <v>0.42956250399539453</v>
       </c>
       <c r="B362" s="1">
         <v>647</v>
@@ -11165,7 +11165,7 @@
     <row r="363" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11943367177901387</v>
+        <v>0.2856740828988219</v>
       </c>
       <c r="B363" s="1">
         <v>454</v>
@@ -11186,7 +11186,7 @@
     <row r="364" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2244370234559917</v>
+        <v>0.28536293650295197</v>
       </c>
       <c r="B364" s="1">
         <v>621</v>
@@ -11210,7 +11210,7 @@
     <row r="365" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.92440011777838083</v>
+        <v>0.57626810387003702</v>
       </c>
       <c r="B365" s="1">
         <v>568</v>
@@ -11234,7 +11234,7 @@
     <row r="366" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58591063894384288</v>
+        <v>0.29277941141879782</v>
       </c>
       <c r="B366" s="1">
         <v>508</v>
@@ -11258,7 +11258,7 @@
     <row r="367" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8.4833522173387022E-2</v>
+        <v>0.6616988210800191</v>
       </c>
       <c r="B367" s="1">
         <v>657</v>
@@ -11282,7 +11282,7 @@
     <row r="368" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68282274711534496</v>
+        <v>0.3748897058356363</v>
       </c>
       <c r="B368" s="1">
         <v>518</v>
@@ -11306,7 +11306,7 @@
     <row r="369" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38008142488016972</v>
+        <v>0.71710046547876294</v>
       </c>
       <c r="B369" s="1">
         <v>668</v>
@@ -11330,7 +11330,7 @@
     <row r="370" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82578908383415184</v>
+        <v>0.35629213722167175</v>
       </c>
       <c r="B370" s="1">
         <v>610</v>
@@ -11363,7 +11363,7 @@
     <row r="371" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63579122224410256</v>
+        <v>0.2325615104505</v>
       </c>
       <c r="B371" s="1">
         <v>517</v>
@@ -11387,7 +11387,7 @@
     <row r="372" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9.5037806858847884E-2</v>
+        <v>0.23259055467587986</v>
       </c>
       <c r="B372" s="1">
         <v>254</v>
@@ -11414,7 +11414,7 @@
     <row r="373" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67499597659364841</v>
+        <v>0.1377912672879108</v>
       </c>
       <c r="B373" s="1">
         <v>519</v>
@@ -11441,7 +11441,7 @@
     <row r="374" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26441621432054374</v>
+        <v>0.66240792572408735</v>
       </c>
       <c r="B374" s="1">
         <v>530</v>
@@ -11465,7 +11465,7 @@
     <row r="375" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61815711885119673</v>
+        <v>0.51840286467587693</v>
       </c>
       <c r="B375" s="1">
         <v>696</v>
@@ -11492,7 +11492,7 @@
     <row r="376" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10585305235541653</v>
+        <v>0.37897046373512355</v>
       </c>
       <c r="B376" s="1">
         <v>586</v>
@@ -11516,7 +11516,7 @@
     <row r="377" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71260346619594761</v>
+        <v>0.76611498950699808</v>
       </c>
       <c r="B377" s="1">
         <v>583</v>
@@ -11540,7 +11540,7 @@
     <row r="378" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8019314271511275E-2</v>
+        <v>0.33288241307908606</v>
       </c>
       <c r="B378" s="1">
         <v>308</v>
@@ -11561,7 +11561,7 @@
     <row r="379" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58030273600202131</v>
+        <v>0.89982222636382381</v>
       </c>
       <c r="B379" s="1">
         <v>681</v>
@@ -11588,7 +11588,7 @@
     <row r="380" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88454704154074903</v>
+        <v>0.11221849568722919</v>
       </c>
       <c r="B380" s="1">
         <v>261</v>
@@ -11612,7 +11612,7 @@
     <row r="381" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14410167850578826</v>
+        <v>0.8993572433037238</v>
       </c>
       <c r="B381" s="1">
         <v>594</v>
@@ -11636,7 +11636,7 @@
     <row r="382" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72941491714301432</v>
+        <v>0.2484368261229658</v>
       </c>
       <c r="B382" s="1">
         <v>645</v>
@@ -11660,7 +11660,7 @@
     <row r="383" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37195356982577799</v>
+        <v>0.50262401540812351</v>
       </c>
       <c r="B383" s="1">
         <v>320</v>
@@ -11681,7 +11681,7 @@
     <row r="384" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88362184209956041</v>
+        <v>8.9269997803796852E-2</v>
       </c>
       <c r="B384" s="1">
         <v>491</v>
@@ -11705,7 +11705,7 @@
     <row r="385" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10471071695835865</v>
+        <v>0.35277200141493847</v>
       </c>
       <c r="B385" s="1">
         <v>592</v>
@@ -11729,7 +11729,7 @@
     <row r="386" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <f t="shared" ref="A386:A449" ca="1" si="6">RAND()</f>
-        <v>0.77096407374923848</v>
+        <v>0.51804664829559244</v>
       </c>
       <c r="B386" s="1">
         <v>575</v>
@@ -11753,7 +11753,7 @@
     <row r="387" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81702724855729092</v>
+        <v>0.21337043760893171</v>
       </c>
       <c r="B387" s="1">
         <v>257</v>
@@ -11777,7 +11777,7 @@
     <row r="388" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33520539978123509</v>
+        <v>0.47389250734047694</v>
       </c>
       <c r="B388" s="1">
         <v>474</v>
@@ -11804,7 +11804,7 @@
     <row r="389" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.25022883204460067</v>
+        <v>0.19299372128351566</v>
       </c>
       <c r="B389" s="1">
         <v>366</v>
@@ -11825,7 +11825,7 @@
     <row r="390" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6.1625444495882364E-2</v>
+        <v>0.2013691699307707</v>
       </c>
       <c r="B390" s="1">
         <v>269</v>
@@ -11852,7 +11852,7 @@
     <row r="391" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.32074424499549126</v>
+        <v>0.62681064188429059</v>
       </c>
       <c r="B391" s="1">
         <v>433</v>
@@ -11873,7 +11873,7 @@
     <row r="392" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5783956919551303</v>
+        <v>0.20777125943057484</v>
       </c>
       <c r="B392" s="1">
         <v>438</v>
@@ -11894,7 +11894,7 @@
     <row r="393" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7.3749830600817412E-2</v>
+        <v>0.97339407334931161</v>
       </c>
       <c r="B393" s="1">
         <v>310</v>
@@ -11921,7 +11921,7 @@
     <row r="394" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6610531348244556</v>
+        <v>0.68182482515337683</v>
       </c>
       <c r="B394" s="1">
         <v>374</v>
@@ -11942,7 +11942,7 @@
     <row r="395" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.64004214660034775</v>
+        <v>0.47266351112860627</v>
       </c>
       <c r="B395" s="1">
         <v>232</v>
@@ -11966,7 +11966,7 @@
     <row r="396" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.91373729810278692</v>
+        <v>0.4047986397020138</v>
       </c>
       <c r="B396" s="1">
         <v>349</v>
@@ -11987,7 +11987,7 @@
     <row r="397" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18068636692440831</v>
+        <v>0.13851987580571568</v>
       </c>
       <c r="B397" s="1">
         <v>222</v>
@@ -12008,7 +12008,7 @@
     <row r="398" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.93417520148220301</v>
+        <v>0.20883721503021768</v>
       </c>
       <c r="B398" s="1">
         <v>229</v>
@@ -12029,7 +12029,7 @@
     <row r="399" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.99167605848721685</v>
+        <v>0.22789848182406058</v>
       </c>
       <c r="B399" s="1">
         <v>698</v>
@@ -12056,7 +12056,7 @@
     <row r="400" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16581775579330693</v>
+        <v>0.22347517793787453</v>
       </c>
       <c r="B400" s="1">
         <v>407</v>
@@ -12077,7 +12077,7 @@
     <row r="401" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69892575920492528</v>
+        <v>0.78857624307796226</v>
       </c>
       <c r="B401" s="1">
         <v>591</v>
@@ -12098,7 +12098,7 @@
     <row r="402" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81786143462747696</v>
+        <v>0.74261050720544775</v>
       </c>
       <c r="B402" s="1">
         <v>246</v>
@@ -12125,7 +12125,7 @@
     <row r="403" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13075345103457947</v>
+        <v>7.8846652591110011E-2</v>
       </c>
       <c r="B403" s="1">
         <v>690</v>
@@ -12152,7 +12152,7 @@
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45496116992012359</v>
+        <v>0.87113649916679725</v>
       </c>
       <c r="B404" s="1">
         <v>618</v>
@@ -12176,7 +12176,7 @@
     <row r="405" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49709085436993417</v>
+        <v>0.25527199603084294</v>
       </c>
       <c r="B405" s="1">
         <v>239</v>
@@ -12197,7 +12197,7 @@
     <row r="406" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21442883055351258</v>
+        <v>0.50361424000387789</v>
       </c>
       <c r="B406" s="1">
         <v>550</v>
@@ -12221,7 +12221,7 @@
     <row r="407" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.94260901856228396</v>
+        <v>0.20591763115137862</v>
       </c>
       <c r="B407" s="1">
         <v>638</v>
@@ -12245,7 +12245,7 @@
     <row r="408" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.80957320215144679</v>
+        <v>0.90487381383525223</v>
       </c>
       <c r="B408" s="1">
         <v>221</v>
@@ -12266,7 +12266,7 @@
     <row r="409" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.28911558777976054</v>
+        <v>0.89811218603803566</v>
       </c>
       <c r="B409" s="1">
         <v>563</v>
@@ -12290,7 +12290,7 @@
     <row r="410" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58434988741160943</v>
+        <v>0.13468100532872174</v>
       </c>
       <c r="B410" s="1">
         <v>666</v>
@@ -12311,7 +12311,7 @@
     <row r="411" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.1932332699821897</v>
+        <v>0.99914141418502322</v>
       </c>
       <c r="B411" s="1">
         <v>608</v>
@@ -12335,7 +12335,7 @@
     <row r="412" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.95582693942591446</v>
+        <v>0.6273318487442715</v>
       </c>
       <c r="B412" s="1">
         <v>536</v>
@@ -12356,7 +12356,7 @@
     <row r="413" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.80641005944001543</v>
+        <v>8.8481245077407511E-3</v>
       </c>
       <c r="B413" s="1">
         <v>259</v>
@@ -12380,7 +12380,7 @@
     <row r="414" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16124613371733187</v>
+        <v>0.60941580432368281</v>
       </c>
       <c r="B414" s="1">
         <v>346</v>
@@ -12407,7 +12407,7 @@
     <row r="415" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.61597077814812429</v>
+        <v>0.38401561002926066</v>
       </c>
       <c r="B415" s="1">
         <v>494</v>
@@ -12431,7 +12431,7 @@
     <row r="416" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.86533760216389477</v>
+        <v>0.58332891561278155</v>
       </c>
       <c r="B416" s="1">
         <v>639</v>
@@ -12452,7 +12452,7 @@
     <row r="417" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.64848525017586167</v>
+        <v>0.391451129944141</v>
       </c>
       <c r="B417" s="1">
         <v>612</v>
@@ -12479,7 +12479,7 @@
     <row r="418" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5018465531736559</v>
+        <v>8.7028721135090858E-2</v>
       </c>
       <c r="B418" s="1">
         <v>423</v>
@@ -12500,7 +12500,7 @@
     <row r="419" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41423026184157419</v>
+        <v>0.34432883387901347</v>
       </c>
       <c r="B419" s="1">
         <v>482</v>
@@ -12527,7 +12527,7 @@
     <row r="420" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13260025198299752</v>
+        <v>4.20838663815708E-2</v>
       </c>
       <c r="B420" s="1">
         <v>305</v>
@@ -12548,7 +12548,7 @@
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.61759047473654749</v>
+        <v>0.79225149453628241</v>
       </c>
       <c r="B421" s="1">
         <v>694</v>
@@ -12569,7 +12569,7 @@
     <row r="422" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4779109624227994</v>
+        <v>0.13414430818075807</v>
       </c>
       <c r="B422" s="1">
         <v>576</v>
@@ -12596,7 +12596,7 @@
     <row r="423" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7494113105793083E-2</v>
+        <v>0.69910169752166329</v>
       </c>
       <c r="B423" s="1">
         <v>401</v>
@@ -12623,7 +12623,7 @@
     <row r="424" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13555366889691689</v>
+        <v>0.37834511087144418</v>
       </c>
       <c r="B424" s="1">
         <v>287</v>
@@ -12644,7 +12644,7 @@
     <row r="425" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45056972707008669</v>
+        <v>0.19401508284766911</v>
       </c>
       <c r="B425" s="1">
         <v>702</v>
@@ -12668,7 +12668,7 @@
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10795614314512181</v>
+        <v>0.48511423600555637</v>
       </c>
       <c r="B426" s="1">
         <v>572</v>
@@ -12692,7 +12692,7 @@
     <row r="427" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44130741354789016</v>
+        <v>0.81833413785339193</v>
       </c>
       <c r="B427" s="1">
         <v>324</v>
@@ -12716,7 +12716,7 @@
     <row r="428" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.71399159952280478</v>
+        <v>0.12756802832214631</v>
       </c>
       <c r="B428" s="1">
         <v>363</v>
@@ -12737,7 +12737,7 @@
     <row r="429" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66912048785752687</v>
+        <v>0.54911644856011677</v>
       </c>
       <c r="B429" s="1">
         <v>567</v>
@@ -12761,7 +12761,7 @@
     <row r="430" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4483743133649698</v>
+        <v>0.69060140000557058</v>
       </c>
       <c r="B430" s="1">
         <v>428</v>
@@ -12791,7 +12791,7 @@
     <row r="431" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.92945414654587954</v>
+        <v>8.6116161376871836E-2</v>
       </c>
       <c r="B431" s="1">
         <v>449</v>
@@ -12812,7 +12812,7 @@
     <row r="432" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49418571498329777</v>
+        <v>0.77940162394417134</v>
       </c>
       <c r="B432" s="1">
         <v>523</v>
@@ -12836,7 +12836,7 @@
     <row r="433" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6364596264961828E-2</v>
+        <v>0.60528726034418745</v>
       </c>
       <c r="B433" s="1">
         <v>342</v>
@@ -12860,7 +12860,7 @@
     <row r="434" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.90919762556097927</v>
+        <v>0.39089285017194886</v>
       </c>
       <c r="B434" s="1">
         <v>365</v>
@@ -12881,7 +12881,7 @@
     <row r="435" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7791538866201124E-2</v>
+        <v>0.81623221389753142</v>
       </c>
       <c r="B435" s="1">
         <v>429</v>
@@ -12902,7 +12902,7 @@
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51970611533054967</v>
+        <v>0.62176482255747301</v>
       </c>
       <c r="B436" s="1">
         <v>522</v>
@@ -12926,7 +12926,7 @@
     <row r="437" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45414545987954147</v>
+        <v>5.659319864147494E-2</v>
       </c>
       <c r="B437" s="1">
         <v>336</v>
@@ -12953,7 +12953,7 @@
     <row r="438" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8795737679648603E-2</v>
+        <v>0.61821670593543598</v>
       </c>
       <c r="B438" s="1">
         <v>582</v>
@@ -12977,7 +12977,7 @@
     <row r="439" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.1919410866986927</v>
+        <v>0.84810375024299667</v>
       </c>
       <c r="B439" s="1">
         <v>436</v>
@@ -12998,7 +12998,7 @@
     <row r="440" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66451471869058754</v>
+        <v>0.36871916985549746</v>
       </c>
       <c r="B440" s="1">
         <v>670</v>
@@ -13022,7 +13022,7 @@
     <row r="441" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84161314293792699</v>
+        <v>0.44037133908867221</v>
       </c>
       <c r="B441" s="1">
         <v>412</v>
@@ -13049,7 +13049,7 @@
     <row r="442" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.94111842417389258</v>
+        <v>0.79028320849405687</v>
       </c>
       <c r="B442" s="1">
         <v>629</v>
@@ -13070,7 +13070,7 @@
     <row r="443" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58696541593780194</v>
+        <v>0.85718084968407604</v>
       </c>
       <c r="B443" s="1">
         <v>512</v>
@@ -13094,7 +13094,7 @@
     <row r="444" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24593445563444893</v>
+        <v>0.63815842876223117</v>
       </c>
       <c r="B444" s="1">
         <v>469</v>
@@ -13115,7 +13115,7 @@
     <row r="445" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.62969783728896489</v>
+        <v>0.27237413942908795</v>
       </c>
       <c r="B445" s="1">
         <v>554</v>
@@ -13142,7 +13142,7 @@
     <row r="446" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24964742916883542</v>
+        <v>0.22164502489669347</v>
       </c>
       <c r="B446" s="1">
         <v>379</v>
@@ -13163,7 +13163,7 @@
     <row r="447" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.46184167194606573</v>
+        <v>0.34740816141401243</v>
       </c>
       <c r="B447" s="1">
         <v>397</v>
@@ -13190,7 +13190,7 @@
     <row r="448" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.75626403897002892</v>
+        <v>4.0271783756365753E-2</v>
       </c>
       <c r="B448" s="1">
         <v>687</v>
@@ -13217,7 +13217,7 @@
     <row r="449" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52762789744788663</v>
+        <v>0.95983933580726921</v>
       </c>
       <c r="B449" s="1">
         <v>251</v>
@@ -13241,7 +13241,7 @@
     <row r="450" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <f t="shared" ref="A450:A499" ca="1" si="7">RAND()</f>
-        <v>0.13307556599341375</v>
+        <v>0.81621589560922114</v>
       </c>
       <c r="B450" s="1">
         <v>356</v>
@@ -13262,7 +13262,7 @@
     <row r="451" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.76658609062720418</v>
+        <v>0.78394711563028052</v>
       </c>
       <c r="B451" s="1">
         <v>703</v>
@@ -13289,7 +13289,7 @@
     <row r="452" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6946833404733064E-2</v>
+        <v>0.22054248822099154</v>
       </c>
       <c r="B452" s="1">
         <v>573</v>
@@ -13310,7 +13310,7 @@
     <row r="453" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.63232596846156763</v>
+        <v>0.5508597726748804</v>
       </c>
       <c r="B453" s="1">
         <v>711</v>
@@ -13334,7 +13334,7 @@
     <row r="454" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.88212694180924978</v>
+        <v>0.5175896936156521</v>
       </c>
       <c r="B454" s="1">
         <v>533</v>
@@ -13355,7 +13355,7 @@
     <row r="455" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.13082010796221677</v>
+        <v>0.83453725042045401</v>
       </c>
       <c r="B455" s="1">
         <v>240</v>
@@ -13382,7 +13382,7 @@
     <row r="456" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32349681655707196</v>
+        <v>0.86799014322608581</v>
       </c>
       <c r="B456" s="1">
         <v>569</v>
@@ -13406,7 +13406,7 @@
     <row r="457" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.135526235594563</v>
+        <v>2.1017594077063717E-2</v>
       </c>
       <c r="B457" s="1">
         <v>258</v>
@@ -13427,7 +13427,7 @@
     <row r="458" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.99448928524202618</v>
+        <v>0.50158145012166389</v>
       </c>
       <c r="B458" s="1">
         <v>463</v>
@@ -13454,7 +13454,7 @@
     <row r="459" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.58345370776726302</v>
+        <v>0.17892587758508505</v>
       </c>
       <c r="B459" s="1">
         <v>466</v>
@@ -13478,7 +13478,7 @@
     <row r="460" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.79207157470531986</v>
+        <v>0.9586659040735056</v>
       </c>
       <c r="B460" s="1">
         <v>556</v>
@@ -13499,7 +13499,7 @@
     <row r="461" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54031299997509274</v>
+        <v>4.5819575879033958E-2</v>
       </c>
       <c r="B461" s="1">
         <v>538</v>
@@ -13520,7 +13520,7 @@
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.2748541328202494E-3</v>
+        <v>0.78924664675472322</v>
       </c>
       <c r="B462" s="1">
         <v>571</v>
@@ -13541,7 +13541,7 @@
     <row r="463" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.55484347790481181</v>
+        <v>0.89622570627312814</v>
       </c>
       <c r="B463" s="1">
         <v>357</v>
@@ -13562,7 +13562,7 @@
     <row r="464" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.96771020494956694</v>
+        <v>0.72656066575037548</v>
       </c>
       <c r="B464" s="1">
         <v>392</v>
@@ -13586,7 +13586,7 @@
     <row r="465" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.55627162847819722</v>
+        <v>0.9606281145262936</v>
       </c>
       <c r="B465" s="1">
         <v>495</v>
@@ -13610,7 +13610,7 @@
     <row r="466" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.73612155239134303</v>
+        <v>0.25310067004711456</v>
       </c>
       <c r="B466" s="1">
         <v>217</v>
@@ -13631,7 +13631,7 @@
     <row r="467" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.68010226450850331</v>
+        <v>0.53398714312926709</v>
       </c>
       <c r="B467" s="1">
         <v>253</v>
@@ -13658,7 +13658,7 @@
     <row r="468" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.58038323040755146</v>
+        <v>0.23432330447113059</v>
       </c>
       <c r="B468" s="1">
         <v>528</v>
@@ -13685,7 +13685,7 @@
     <row r="469" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.90438841741939424</v>
+        <v>0.52505977901585243</v>
       </c>
       <c r="B469" s="1">
         <v>272</v>
@@ -13709,7 +13709,7 @@
     <row r="470" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.74840995693144285</v>
+        <v>0.74027116215150091</v>
       </c>
       <c r="B470" s="1">
         <v>331</v>
@@ -13733,7 +13733,7 @@
     <row r="471" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.78288035826870683</v>
+        <v>6.1208630997572011E-2</v>
       </c>
       <c r="B471" s="1">
         <v>470</v>
@@ -13757,7 +13757,7 @@
     <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.68208068413247658</v>
+        <v>8.5005436030149872E-2</v>
       </c>
       <c r="B472" s="1">
         <v>663</v>
@@ -13781,7 +13781,7 @@
     <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.2272531167444618</v>
+        <v>0.89816123440840456</v>
       </c>
       <c r="B473" s="1">
         <v>546</v>
@@ -13805,7 +13805,7 @@
     <row r="474" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.80725921522311705</v>
+        <v>0.88036078510812099</v>
       </c>
       <c r="B474" s="1">
         <v>473</v>
@@ -13832,7 +13832,7 @@
     <row r="475" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.0818334482026448E-2</v>
+        <v>0.87278064917332832</v>
       </c>
       <c r="B475" s="1">
         <v>651</v>
@@ -13856,7 +13856,7 @@
     <row r="476" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.75635676320263445</v>
+        <v>0.38842600117298498</v>
       </c>
       <c r="B476" s="1">
         <v>237</v>
@@ -13877,7 +13877,7 @@
     <row r="477" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.20998494877137219</v>
+        <v>0.28721097791835715</v>
       </c>
       <c r="B477" s="1">
         <v>599</v>
@@ -13901,7 +13901,7 @@
     <row r="478" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.84764372740223193</v>
+        <v>0.7646378444327282</v>
       </c>
       <c r="B478" s="1">
         <v>447</v>
@@ -13922,7 +13922,7 @@
     <row r="479" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.77848441032530835</v>
+        <v>0.9478436280813477</v>
       </c>
       <c r="B479" s="1">
         <v>631</v>
@@ -13946,7 +13946,7 @@
     <row r="480" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.24021751707778205</v>
+        <v>0.92658205598528576</v>
       </c>
       <c r="B480" s="1">
         <v>274</v>
@@ -13970,7 +13970,7 @@
     <row r="481" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.69104264858682674</v>
+        <v>0.80205123861149352</v>
       </c>
       <c r="B481" s="1">
         <v>562</v>
@@ -13994,7 +13994,7 @@
     <row r="482" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.62214618893661067</v>
+        <v>0.7482338152494129</v>
       </c>
       <c r="B482" s="1">
         <v>710</v>
@@ -14018,7 +14018,7 @@
     <row r="483" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.9705536084814731</v>
+        <v>0.96623843929091158</v>
       </c>
       <c r="B483" s="1">
         <v>596</v>
@@ -14045,7 +14045,7 @@
     <row r="484" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.55072009076505868</v>
+        <v>0.60809994354277819</v>
       </c>
       <c r="B484" s="1">
         <v>225</v>
@@ -14069,7 +14069,7 @@
     <row r="485" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.48311165920943422</v>
+        <v>0.15771491240282776</v>
       </c>
       <c r="B485" s="1">
         <v>322</v>
@@ -14093,7 +14093,7 @@
     <row r="486" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.4131976225549121</v>
+        <v>0.20891325809749617</v>
       </c>
       <c r="B486" s="1">
         <v>688</v>
@@ -14117,7 +14117,7 @@
     <row r="487" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28819373209765153</v>
+        <v>0.44737416211768255</v>
       </c>
       <c r="B487" s="1">
         <v>461</v>
@@ -14141,7 +14141,7 @@
     <row r="488" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.93854645837552431</v>
+        <v>0.82928062046622242</v>
       </c>
       <c r="B488" s="1">
         <v>402</v>
@@ -14168,7 +14168,7 @@
     <row r="489" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.43402858853890769</v>
+        <v>0.40745051226935214</v>
       </c>
       <c r="B489" s="1">
         <v>489</v>
@@ -14195,7 +14195,7 @@
     <row r="490" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.10418302177252114</v>
+        <v>0.20978633984038786</v>
       </c>
       <c r="B490" s="1">
         <v>256</v>
@@ -14219,7 +14219,7 @@
     <row r="491" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.60272364073001983</v>
+        <v>0.45219138645488111</v>
       </c>
       <c r="B491" s="1">
         <v>351</v>
@@ -14243,7 +14243,7 @@
     <row r="492" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.49105346155866247</v>
+        <v>0.62803006111614124</v>
       </c>
       <c r="B492" s="1">
         <v>243</v>
@@ -14264,7 +14264,7 @@
     <row r="493" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.969532782110095E-3</v>
+        <v>0.17170935958934153</v>
       </c>
       <c r="B493" s="1">
         <v>475</v>
@@ -14288,7 +14288,7 @@
     <row r="494" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.5775594259240473</v>
+        <v>0.14157050917202374</v>
       </c>
       <c r="B494" s="1">
         <v>291</v>
@@ -14312,7 +14312,7 @@
     <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.88400037906916651</v>
+        <v>0.85592048799053166</v>
       </c>
       <c r="B495" s="1">
         <v>531</v>
@@ -14339,7 +14339,7 @@
     <row r="496" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.85062578391660337</v>
+        <v>0.79254011030166871</v>
       </c>
       <c r="B496" s="1">
         <v>235</v>
@@ -14360,7 +14360,7 @@
     <row r="497" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32716259882750698</v>
+        <v>0.94494245346777472</v>
       </c>
       <c r="B497" s="1">
         <v>601</v>
@@ -14387,7 +14387,7 @@
     <row r="498" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.27903039094209936</v>
+        <v>0.56692779802592208</v>
       </c>
       <c r="B498" s="1">
         <v>692</v>
@@ -14411,7 +14411,7 @@
     <row r="499" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.85508437778368318</v>
+        <v>0.25095782620822593</v>
       </c>
       <c r="B499" s="1">
         <v>606</v>
@@ -14583,7 +14583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
+    <sheetView topLeftCell="A485" workbookViewId="0">
       <selection activeCell="A698" sqref="A500:XFD698"/>
     </sheetView>
   </sheetViews>
